--- a/sample_sheets/all_samples.xlsx
+++ b/sample_sheets/all_samples.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="143">
   <si>
     <t xml:space="preserve">Sample ID</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0564/hpgl0564_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v1/hpgl0564/hpgl0564_scerevisiae.count.xz</t>
+    <t xml:space="preserve">preprocessing/E1/hpgl0564/hpgl0564_scerevisiae.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0565</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0565/hpgl0565_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v1/hpgl0565/hpgl0565_scerevisiae.count.xz</t>
+    <t xml:space="preserve">Preprocessing/E1/hpgl0565/hpgl0565_scerevisiae.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0566</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0566/hpgl0566_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v1/hpgl0566/hpgl0566_scerevisiae.count.xz</t>
+    <t xml:space="preserve">preprocessing/E1/hpgl0566/hpgl0566_scerevisiae.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0567</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0567/hpgl0567_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v1/hpgl0567/hpgl0567_scerevisiae.count.xz</t>
+    <t xml:space="preserve">preprocessing/E1/hpgl0567/hpgl0567_scerevisiae.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0568</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0568/hpgl0568_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v1/hpgl0568/hpgl0568_scerevisiae.count.xz</t>
+    <t xml:space="preserve">preprocessing/E1/hpgl0568/hpgl0568_scerevisiae.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0569</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0569/hpgl0569_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v1/hpgl0569/hpgl0569_scerevisiae.count.xz</t>
+    <t xml:space="preserve">preprocessing/E1/hpgl0569/hpgl0569_scerevisiae.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0570</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0570/hpgl0570_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v1/hpgl0570/hpgl0570_scerevisiae.count.xz</t>
+    <t xml:space="preserve">preprocessing/E1/hpgl0570/hpgl0570_scerevisiae.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0571</t>
@@ -209,34 +209,115 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0571/hpgl0571_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v1/hpgl0571/hpgl0571_scerevisiae.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed_data/count_tables/wt/wt_forward-trimmed_scerevisiae.count.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upf1</t>
+    <t xml:space="preserve">preprocessing/E1/hpgl0571/hpgl0571_scerevisiae.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgl0774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/v2/hpgl0774/outputs/bowtie2_scerevisiae/hpgl0774_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0774/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0774/outputs/bowtie2_scerevisiae/hpgl0774_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgl0775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/v2/hpgl0775/outputs/bowtie2_scerevisiae/hpgl0775_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0775/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0775/outputs/bowtie2_scerevisiae/hpgl0775_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgl0776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yJD1745</t>
   </si>
   <si>
     <t xml:space="preserve">upf1d</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/upf1/upf1_forward-trimmed_scerevisiae.count.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upf2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed_data/count_tables/upf2/upf2_forward-trimmed_scerevisiae.count.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upf3</t>
+    <t xml:space="preserve">wt ade2-1 can1-100 his3-11 leu2-3, 112 trp1-1 ura3-1 cbf5::TRP1 upf1::LEU2 + CBF5 on pRS313 (yJD1524 upf1Δ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/v2/hpgl0776/outputs/bowtie2_scerevisiae/hpgl0776_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0776/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0776/outputs/bowtie2_scerevisiae/hpgl0776_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgl0777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yJD1746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbf5_D95A upf1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d95a ade2-1 can1-100 his3-11 leu2-3, 112 trp1-1 ura3-1 cbf5::TRP1 upf1::LEU2 + CBF5 D95A on pRS313 (yJD1525 upf1Δ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/v2/hpgl0777/outputs/bowtie2_scerevisiae/hpgl0777_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0777/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0777/outputs/bowtie2_scerevisiae/hpgl0777_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgl0778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/v2/hpgl0778/outputs/bowtie2_scerevisiae/hpgl0778_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0778/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0778/outputs/bowtie2_scerevisiae/hpgl0778_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgl0779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/v2/hpgl0779/outputs/bowtie2_scerevisiae/hpgl0779_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0779/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0779/outputs/bowtie2_scerevisiae/hpgl0779_forward-trimmed.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hpgl0780</t>
   </si>
   <si>
     <r>
@@ -261,100 +342,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/upf3/upf3_forward-trimmed_scereviaiae.count.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgl0774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0774/outputs/bowtie2_scerevisiae/hpgl0774_forward-trimmed.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0774/outputs/bowtie2_scerevisiae/introns.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgl0775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0775/outputs/bowtie2_scerevisiae/hpgl0775_forward-trimmed.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0775/outputs/bowtie2_scerevisiae/introns.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgl0776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yJD1745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wt ade2-1 can1-100 his3-11 leu2-3, 112 trp1-1 ura3-1 cbf5::TRP1 upf1::LEU2 + CBF5 on pRS313 (yJD1524 upf1Δ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0776/outputs/bowtie2_scerevisiae/hpgl0776_forward-trimmed.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0776/outputs/bowtie2_scerevisiae/introns.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgl0777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yJD1746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbf5_D95A upf1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d95a ade2-1 can1-100 his3-11 leu2-3, 112 trp1-1 ura3-1 cbf5::TRP1 upf1::LEU2 + CBF5 D95A on pRS313 (yJD1525 upf1Δ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0777/outputs/bowtie2_scerevisiae/hpgl0777_forward-trimmed.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0777/outputs/bowtie2_scerevisiae/introns.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgl0778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0778/outputs/bowtie2_scerevisiae/hpgl0778_forward-trimmed.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0778/outputs/bowtie2_scerevisiae/introns.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgl0779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0779/outputs/bowtie2_scerevisiae/hpgl0779_forward-trimmed.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0779/outputs/bowtie2_scerevisiae/introns.count.xz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpgl0780</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0780/outputs/bowtie2_scerevisiae/hpgl0780_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0780/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0780/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0780/outputs/bowtie2_scerevisiae/hpgl0780_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0781</t>
@@ -363,7 +357,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0781/outputs/bowtie2_scerevisiae/hpgl0781_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0781/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0781/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0781/outputs/bowtie2_scerevisiae/hpgl0781_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0782</t>
@@ -378,7 +375,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0782/outputs/bowtie2_scerevisiae/hpgl0782_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0782/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0782/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0782/outputs/bowtie2_scerevisiae/hpgl0782_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0783</t>
@@ -390,7 +390,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0783/outputs/bowtie2_scerevisiae/hpgl0783_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0783/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0783/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0783/outputs/bowtie2_scerevisiae/hpgl0783_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0784</t>
@@ -399,7 +402,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0784/outputs/bowtie2_scerevisiae/hpgl0784_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0784/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0784/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0784/outputs/bowtie2_scerevisiae/hpgl0784_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0785</t>
@@ -408,7 +414,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0785/outputs/bowtie2_scerevisiae/hpgl0785_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0785/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0785/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0785/outputs/bowtie2_scerevisiae/hpgl0785_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0786</t>
@@ -423,7 +432,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0786/outputs/bowtie2_scerevisiae/hpgl0786_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0786/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0786/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0786/outputs/bowtie2_scerevisiae/hpgl0786_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0787</t>
@@ -432,7 +444,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0787/outputs/bowtie2_scerevisiae/hpgl0787_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0787/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0787/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0787/outputs/bowtie2_scerevisiae/hpgl0787_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0788</t>
@@ -441,7 +456,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0788/outputs/bowtie2_scerevisiae/hpgl0788_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0788/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0788/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0788/outputs/bowtie2_scerevisiae/hpgl0788_forward-trimmed.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0789</t>
@@ -450,7 +468,10 @@
     <t xml:space="preserve">preprocessing/v2/hpgl0789/outputs/bowtie2_scerevisiae/hpgl0789_forward-trimmed.count.xz</t>
   </si>
   <si>
-    <t xml:space="preserve">preprocessing/v2/hpgl0789/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+    <t xml:space="preserve">preprocessing/E2/hpgl0789/outputs/bowtie2_scerevisiae/introns.count.xz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing/E2/hpgl0789/outputs/bowtie2_scerevisiae/hpgl0789_forward-trimmed.count.xz</t>
   </si>
 </sst>
 </file>
@@ -492,15 +513,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Sans"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Sans"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -559,7 +580,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,10 +601,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ32"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1098,153 +1119,185 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="Q13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="J14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AMJ16" s="0"/>
+        <v>65</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="Q16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -1253,13 +1306,13 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>27</v>
@@ -1268,25 +1321,25 @@
         <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O17" s="3"/>
       <c r="Q17" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -1295,13 +1348,13 @@
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>47</v>
@@ -1310,7 +1363,7 @@
         <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>48</v>
@@ -1318,33 +1371,33 @@
       <c r="K18" s="2"/>
       <c r="O18" s="3"/>
       <c r="Q18" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>27</v>
@@ -1353,44 +1406,44 @@
         <v>47</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="O19" s="3"/>
       <c r="Q19" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1398,10 +1451,10 @@
         <v>47</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1409,18 +1462,18 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
       <c r="Q20" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -1429,13 +1482,13 @@
         <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>27</v>
@@ -1444,25 +1497,25 @@
         <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O21" s="3"/>
       <c r="Q21" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
@@ -1471,13 +1524,13 @@
         <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>47</v>
@@ -1486,7 +1539,7 @@
         <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>48</v>
@@ -1494,33 +1547,33 @@
       <c r="K22" s="2"/>
       <c r="O22" s="3"/>
       <c r="Q22" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>27</v>
@@ -1529,43 +1582,43 @@
         <v>47</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="O23" s="3"/>
       <c r="Q23" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>47</v>
@@ -1574,10 +1627,10 @@
         <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1585,18 +1638,18 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
       <c r="Q24" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -1605,13 +1658,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>27</v>
@@ -1620,25 +1673,25 @@
         <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O25" s="3"/>
       <c r="Q25" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
@@ -1647,13 +1700,13 @@
         <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>47</v>
@@ -1670,33 +1723,33 @@
       <c r="K26" s="2"/>
       <c r="O26" s="3"/>
       <c r="Q26" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>27</v>
@@ -1705,43 +1758,43 @@
         <v>47</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="O27" s="3"/>
       <c r="Q27" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>47</v>
@@ -1753,7 +1806,7 @@
         <v>113</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1761,189 +1814,13 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
       <c r="Q28" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="Q29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="O30" s="3"/>
-      <c r="Q30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="O31" s="3"/>
-      <c r="Q31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="3"/>
-      <c r="Q32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1952,6 +1829,9 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:N16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="J20:N20"/>
@@ -1961,9 +1841,6 @@
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:M27"/>
     <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:N32"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sample_sheets/all_samples.xlsx
+++ b/sample_sheets/all_samples.xlsx
@@ -24,11 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="168">
   <si>
     <t xml:space="preserve">Sample ID</t>
   </si>
   <si>
+    <t xml:space="preserve">SRA sample</t>
+  </si>
+  <si>
     <t xml:space="preserve">strain</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t xml:space="preserve">hpgl0564</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384240</t>
+  </si>
+  <si>
     <t xml:space="preserve">yJD1524</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t xml:space="preserve">hpgl0565</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384241</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
@@ -137,6 +146,9 @@
     <t xml:space="preserve">hpgl0566</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384242</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
@@ -149,6 +161,9 @@
     <t xml:space="preserve">hpgl0567</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384243</t>
+  </si>
+  <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
@@ -161,6 +176,9 @@
     <t xml:space="preserve">hpgl0568</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384244</t>
+  </si>
+  <si>
     <t xml:space="preserve">yJD1525</t>
   </si>
   <si>
@@ -182,6 +200,9 @@
     <t xml:space="preserve">hpgl0569</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384245</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
@@ -194,6 +215,9 @@
     <t xml:space="preserve">hpgl0570</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384246</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
@@ -206,6 +230,9 @@
     <t xml:space="preserve">hpgl0571</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384247</t>
+  </si>
+  <si>
     <t xml:space="preserve">processed_data/count_tables/hpgl0571/hpgl0571_scerevisiae.count.gz</t>
   </si>
   <si>
@@ -215,6 +242,9 @@
     <t xml:space="preserve">hpgl0774</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384248</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2B1</t>
   </si>
   <si>
@@ -236,6 +266,9 @@
     <t xml:space="preserve">hpgl0775</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384249</t>
+  </si>
+  <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0775/outputs/bowtie2_scerevisiae/hpgl0775_forward-trimmed.count.xz</t>
   </si>
   <si>
@@ -248,6 +281,9 @@
     <t xml:space="preserve">hpgl0776</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384250</t>
+  </si>
+  <si>
     <t xml:space="preserve">yJD1745</t>
   </si>
   <si>
@@ -269,6 +305,9 @@
     <t xml:space="preserve">hpgl0777</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384251</t>
+  </si>
+  <si>
     <t xml:space="preserve">yJD1746</t>
   </si>
   <si>
@@ -290,6 +329,9 @@
     <t xml:space="preserve">hpgl0778</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384252</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2B2</t>
   </si>
   <si>
@@ -308,6 +350,9 @@
     <t xml:space="preserve">hpgl0779</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384253</t>
+  </si>
+  <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0779/outputs/bowtie2_scerevisiae/hpgl0779_forward-trimmed.count.xz</t>
   </si>
   <si>
@@ -318,6 +363,9 @@
   </si>
   <si>
     <t xml:space="preserve">hpgl0780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMN09384254</t>
   </si>
   <si>
     <r>
@@ -354,6 +402,9 @@
     <t xml:space="preserve">hpgl0781</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384255</t>
+  </si>
+  <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0781/outputs/bowtie2_scerevisiae/hpgl0781_forward-trimmed.count.xz</t>
   </si>
   <si>
@@ -366,6 +417,9 @@
     <t xml:space="preserve">hpgl0782</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384256</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2B3</t>
   </si>
   <si>
@@ -384,6 +438,9 @@
     <t xml:space="preserve">hpgl0783</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384257</t>
+  </si>
+  <si>
     <t xml:space="preserve">42h</t>
   </si>
   <si>
@@ -399,6 +456,9 @@
     <t xml:space="preserve">hpgl0784</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384258</t>
+  </si>
+  <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0784/outputs/bowtie2_scerevisiae/hpgl0784_forward-trimmed.count.xz</t>
   </si>
   <si>
@@ -411,6 +471,9 @@
     <t xml:space="preserve">hpgl0785</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384259</t>
+  </si>
+  <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0785/outputs/bowtie2_scerevisiae/hpgl0785_forward-trimmed.count.xz</t>
   </si>
   <si>
@@ -423,6 +486,9 @@
     <t xml:space="preserve">hpgl0786</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384260</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2B4</t>
   </si>
   <si>
@@ -441,6 +507,9 @@
     <t xml:space="preserve">hpgl0787</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384261</t>
+  </si>
+  <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0787/outputs/bowtie2_scerevisiae/hpgl0787_forward-trimmed.count.xz</t>
   </si>
   <si>
@@ -453,6 +522,9 @@
     <t xml:space="preserve">hpgl0788</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMN09384262</t>
+  </si>
+  <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0788/outputs/bowtie2_scerevisiae/hpgl0788_forward-trimmed.count.xz</t>
   </si>
   <si>
@@ -463,6 +535,9 @@
   </si>
   <si>
     <t xml:space="preserve">hpgl0789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMN09384263</t>
   </si>
   <si>
     <t xml:space="preserve">preprocessing/v2/hpgl0789/outputs/bowtie2_scerevisiae/hpgl0789_forward-trimmed.count.xz</t>
@@ -513,15 +588,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Sans"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Sans"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -567,7 +642,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -576,11 +651,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,24 +680,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="10.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="93.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="93.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="10.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,1168 +759,1243 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>619.4</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>27385278</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>23432324</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>15438470</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>11946808</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>17813593</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>15224673</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>10061396</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>7752197</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>619.4</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>27385278</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>23432324</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>15438470</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>11946808</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="L7" s="1" t="n">
+        <v>375.4</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>8973978</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>7682107</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>5078415</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>3895563</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>17813593</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>15224673</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>10061396</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>7752197</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>375.4</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>8973978</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>7682107</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>5078415</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>3895563</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>720.3</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="M8" s="1" t="n">
         <v>23744501</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="N8" s="1" t="n">
         <v>20191005</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>13457860</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="P8" s="1" t="n">
         <v>10286641</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>43</v>
+      <c r="Q8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>440.7</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="M9" s="1" t="n">
         <v>23311126</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>19999162</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>13141126</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>10170000</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>50</v>
+      <c r="Q9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>423.5</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="M10" s="1" t="n">
         <v>10683277</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>9147161</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>6034715</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1" t="n">
         <v>4648562</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>54</v>
+      <c r="Q10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>580.6</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="M11" s="1" t="n">
         <v>29210067</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>25031349</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>16486811</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>12723256</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>58</v>
+      <c r="Q11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>433.8</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>10130466</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>8630359</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>5743359</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>4387107</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>433.8</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>10130466</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>8630359</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>5743359</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>4387107</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="Q13" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="4"/>
       <c r="R13" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="O14" s="3"/>
-      <c r="Q14" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="P14" s="4"/>
       <c r="R14" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="Q15" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="4"/>
       <c r="R15" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="Q16" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="P16" s="4"/>
       <c r="R16" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="Q17" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="4"/>
       <c r="R17" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="O18" s="3"/>
-      <c r="Q18" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="P18" s="4"/>
       <c r="R18" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="O19" s="3"/>
-      <c r="Q19" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="4"/>
       <c r="R19" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="Q20" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="P20" s="4"/>
       <c r="R20" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="Q21" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="4"/>
       <c r="R21" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>130</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="Q22" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="P22" s="4"/>
       <c r="R22" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>136</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="O23" s="3"/>
-      <c r="Q23" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="4"/>
       <c r="R23" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>141</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="Q24" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="P24" s="4"/>
       <c r="R24" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="Q25" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="4"/>
       <c r="R25" s="1" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>153</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="O26" s="3"/>
-      <c r="Q26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="K26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="P26" s="4"/>
       <c r="R26" s="1" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>158</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="O27" s="3"/>
-      <c r="Q27" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="4"/>
       <c r="R27" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>163</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="Q28" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="P28" s="4"/>
       <c r="R28" s="1" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:O28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sample_sheets/all_samples.xlsx
+++ b/sample_sheets/all_samples.xlsx
@@ -140,7 +140,7 @@
     <t xml:space="preserve">processed_data/count_tables/hpgl0565/hpgl0565_scerevisiae.count.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Preprocessing/E1/hpgl0565/hpgl0565_scerevisiae.count.xz</t>
+    <t xml:space="preserve">preprocessing/E1/hpgl0565/hpgl0565_scerevisiae.count.xz</t>
   </si>
   <si>
     <t xml:space="preserve">hpgl0566</t>
@@ -682,8 +682,8 @@
   </sheetPr>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N3" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T7" activeCellId="0" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sample_sheets/all_samples.xlsx
+++ b/sample_sheets/all_samples.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="156">
   <si>
     <t xml:space="preserve">Sample ID</t>
   </si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">batch</t>
   </si>
   <si>
-    <t xml:space="preserve">originalbatch</t>
-  </si>
-  <si>
     <t xml:space="preserve">tube</t>
   </si>
   <si>
@@ -62,19 +59,16 @@
     <t xml:space="preserve">conc</t>
   </si>
   <si>
-    <t xml:space="preserve">bttotal_reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bttotal_mapped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btleft_mapped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btright_mapped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bowtie_file</t>
+    <t xml:space="preserve">all_reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aligned_0_times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aligned_1_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aligned_gt1_time</t>
   </si>
   <si>
     <t xml:space="preserve">bt2_file</t>
@@ -83,7 +77,7 @@
     <t xml:space="preserve">intron_file</t>
   </si>
   <si>
-    <t xml:space="preserve">all_file</t>
+    <t xml:space="preserve">kallisto_file</t>
   </si>
   <si>
     <t xml:space="preserve">## Note to self:  I modified the conditions to make clear that the 'wild-type' strains are in fact not isogenic.</t>
@@ -122,9 +116,6 @@
     <t xml:space="preserve">wt ade2-1 can1-100 his3-11 leu2-3, 112 trp1-1 ura3-1 cbf5::TRP1 + CBF5 on pRS313</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/hpgl0564/hpgl0564_scerevisiae.count.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/E1/hpgl0564/hpgl0564_scerevisiae.count.xz</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/hpgl0565/hpgl0565_scerevisiae.count.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/E1/hpgl0565/hpgl0565_scerevisiae.count.xz</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/hpgl0566/hpgl0566_scerevisiae.count.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/E1/hpgl0566/hpgl0566_scerevisiae.count.xz</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/hpgl0567/hpgl0567_scerevisiae.count.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/E1/hpgl0567/hpgl0567_scerevisiae.count.xz</t>
   </si>
   <si>
@@ -191,9 +173,6 @@
     <t xml:space="preserve">d95a ade2-1 can1-100 his3-11 leu2-3, 112 trp1-1 ura3-1 cbf5::TRP1 + CBF5 D95A on pRS313</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/hpgl0568/hpgl0568_scerevisiae.count.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/E1/hpgl0568/hpgl0568_scerevisiae.count.xz</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/hpgl0569/hpgl0569_scerevisiae.count.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/E1/hpgl0569/hpgl0569_scerevisiae.count.xz</t>
   </si>
   <si>
@@ -221,9 +197,6 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/hpgl0570/hpgl0570_scerevisiae.count.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/E1/hpgl0570/hpgl0570_scerevisiae.count.xz</t>
   </si>
   <si>
@@ -233,9 +206,6 @@
     <t xml:space="preserve">SAMN09384247</t>
   </si>
   <si>
-    <t xml:space="preserve">processed_data/count_tables/hpgl0571/hpgl0571_scerevisiae.count.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">preprocessing/E1/hpgl0571/hpgl0571_scerevisiae.count.xz</t>
   </si>
   <si>
@@ -330,9 +300,6 @@
   </si>
   <si>
     <t xml:space="preserve">SAMN09384252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2B2</t>
   </si>
   <si>
     <t xml:space="preserve">g</t>
@@ -420,7 +387,7 @@
     <t xml:space="preserve">SAMN09384256</t>
   </si>
   <si>
-    <t xml:space="preserve">E2B3</t>
+    <t xml:space="preserve">E2B2</t>
   </si>
   <si>
     <t xml:space="preserve">h</t>
@@ -487,9 +454,6 @@
   </si>
   <si>
     <t xml:space="preserve">SAMN09384260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2B4</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
@@ -556,7 +520,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -590,13 +554,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Sans"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -642,7 +599,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,10 +614,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -680,25 +633,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N3" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T7" activeCellId="0" sqref="T7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="10.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="93.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="93.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="16" style="1" width="10.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,1246 +710,1312 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="n">
+        <v>619.4</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>27385278</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>751242</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>19993809</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>6640227</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>619.4</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>27385278</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>23432324</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>15438470</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>11946808</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="K6" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>17813593</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>435489</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>13049499</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>4328605</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>17813593</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>15224673</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>10061396</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>7752197</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="K7" s="1" t="n">
+        <v>375.4</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>8973978</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>223318</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>6985858</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>1764802</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>375.4</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>8973978</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>7682107</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>5078415</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>3895563</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>720.3</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="L8" s="2" t="n">
         <v>23744501</v>
       </c>
-      <c r="N8" s="1" t="n">
-        <v>20191005</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>13457860</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>10286641</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>48</v>
+      <c r="M8" s="2" t="n">
+        <v>616170</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>17297838</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>5830493</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>440.7</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>23311126</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>502136</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>17450412</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>5358578</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>440.7</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>23311126</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>19999162</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>13141126</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>10170000</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>423.5</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>10683277</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>250469</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>7954867</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>2477941</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>423.5</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>10683277</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>9147161</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>6034715</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>4648562</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="3" t="n">
         <v>580.6</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="L11" s="2" t="n">
         <v>29210067</v>
       </c>
-      <c r="N11" s="1" t="n">
-        <v>25031349</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>16486811</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>12723256</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>66</v>
+      <c r="M11" s="2" t="n">
+        <v>627501</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>21543970</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>7038596</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>433.8</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="L12" s="2" t="n">
         <v>10130466</v>
       </c>
-      <c r="N12" s="1" t="n">
-        <v>8630359</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>5743359</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>4387107</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>70</v>
+      <c r="M12" s="2" t="n">
+        <v>249852</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>7475757</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>2404857</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="4"/>
+      <c r="L13" s="2" t="n">
+        <v>32766926</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>500472</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>28168471</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>4097983</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="R13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2" t="n">
+        <v>43694300</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>687420</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>36795650</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>6211230</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="R14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="P15" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2" t="n">
+        <v>33542473</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>508511</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>28003440</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>5030522</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="R15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2" t="n">
+        <v>41203778</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>731674</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>34039116</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>6432988</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="R16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="4"/>
+      <c r="L17" s="2" t="n">
+        <v>40534818</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>655962</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>34568519</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>5310337</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="R17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="P18" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2" t="n">
+        <v>35406054</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>528372</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>28674921</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>6202761</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="R18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2" t="n">
+        <v>34088644</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>499165</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>28626094</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>4963385</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="R19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2" t="n">
+        <v>35890706</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>580233</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>29815736</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>5494737</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="R20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="4"/>
+      <c r="L21" s="2" t="n">
+        <v>36625152</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>651412</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>27188576</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>8785164</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="R21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="P22" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2" t="n">
+        <v>32358842</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>614331</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>23881950</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>7862561</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="R22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="P23" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2" t="n">
+        <v>29112109</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>640400</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>21863130</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>6608579</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="R23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2" t="n">
+        <v>31331793</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>510352</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>22386629</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>8434812</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
+      <c r="Q24" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="R24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" s="4"/>
+      <c r="L25" s="2" t="n">
+        <v>34988827</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>663795</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>25882878</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>8442154</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="R25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="P26" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2" t="n">
+        <v>33545875</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>538490</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>24584229</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>8423156</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="R26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2" t="n">
+        <v>35608362</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>746063</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>26741245</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>8121054</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="4"/>
       <c r="R27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2" t="n">
+        <v>33126021</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>619345</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>24020516</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>8486160</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="R28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
